--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4D689-2D8A-4AF7-B525-DD2C18B2EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9412C-AB33-445A-B71D-F91DCE3A64B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>offset</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰伤害 + %s。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>target_buff_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,8 +91,140 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜伤害 + %s。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>火焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜抗性百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>冰霜伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>闪电伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>毒素伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>物理伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>火焰抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>冰霜抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>闪电抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>毒素抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>物理抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>火焰 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理 + {s}%。</t>
+  </si>
+  <si>
+    <t>火焰抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理抗性 + {s}%。</t>
   </si>
 </sst>
 </file>
@@ -207,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -222,12 +346,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,21 +628,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
@@ -549,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="1"/>
@@ -577,7 +696,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
@@ -601,54 +720,54 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
         <v>1001</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
         <v>1001</v>
       </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -656,10 +775,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -676,30 +795,480 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1016</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1018</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1019</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1020</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB9412C-AB33-445A-B71D-F91DCE3A64B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC09BCC-E2A0-4588-A296-F185A76BB7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>##var</t>
   </si>
@@ -225,6 +236,240 @@
   </si>
   <si>
     <t>物理抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围百分比</t>
+  </si>
+  <si>
+    <t>视野百分比</t>
+  </si>
+  <si>
+    <t>最大生命值百分比</t>
+  </si>
+  <si>
+    <t>生命回复百分比</t>
+  </si>
+  <si>
+    <t>防御百分比</t>
+  </si>
+  <si>
+    <t>闪避百分比</t>
+  </si>
+  <si>
+    <t>幸运百分比</t>
+  </si>
+  <si>
+    <t>速度百分比</t>
+  </si>
+  <si>
+    <t>治疗效率百分比</t>
+  </si>
+  <si>
+    <t>暴击率百分比</t>
+  </si>
+  <si>
+    <t>暴击伤害百分比</t>
+  </si>
+  <si>
+    <t>易伤伤害百分比</t>
+  </si>
+  <si>
+    <t>易伤率百分比</t>
+  </si>
+  <si>
+    <t>魔力百分比</t>
+  </si>
+  <si>
+    <t>攻击速度百分比</t>
+  </si>
+  <si>
+    <t>力量百分比</t>
+  </si>
+  <si>
+    <t>智慧百分比</t>
+  </si>
+  <si>
+    <t>敏捷百分比</t>
+  </si>
+  <si>
+    <t>攻击范围 + {s}%。</t>
+  </si>
+  <si>
+    <t>视野 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}%。</t>
+  </si>
+  <si>
+    <t>生命回复 + {s}%。</t>
+  </si>
+  <si>
+    <t>防御 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪避 + {s}%。</t>
+  </si>
+  <si>
+    <t>幸运 + {s}%。</t>
+  </si>
+  <si>
+    <t>速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>治疗效率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤率 + {s}%。</t>
+  </si>
+  <si>
+    <t>魔力 + {s}%。</t>
+  </si>
+  <si>
+    <t>攻击速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>力量 + {s}%。</t>
+  </si>
+  <si>
+    <t>智慧 + {s}%。</t>
+  </si>
+  <si>
+    <t>敏捷 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}。</t>
+  </si>
+  <si>
+    <t>生命回复 + {s}。</t>
+  </si>
+  <si>
+    <t>防御 + {s}。</t>
+  </si>
+  <si>
+    <t>闪避 + {s}。</t>
+  </si>
+  <si>
+    <t>幸运 + {s}。</t>
+  </si>
+  <si>
+    <t>速度 + {s}。</t>
+  </si>
+  <si>
+    <t>治疗效率 + {s}。</t>
+  </si>
+  <si>
+    <t>暴击率 + {s}。</t>
+  </si>
+  <si>
+    <t>暴击伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>易伤伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>易伤率 + {s}。</t>
+  </si>
+  <si>
+    <t>魔力 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击速度 + {s}。</t>
+  </si>
+  <si>
+    <t>力量 + {s}。</t>
+  </si>
+  <si>
+    <t>智慧 + {s}。</t>
+  </si>
+  <si>
+    <t>敏捷 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击范围 + {s}。</t>
+  </si>
+  <si>
+    <t>视野 + {s}。</t>
   </si>
 </sst>
 </file>
@@ -628,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D24"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C43:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1246,12 +1491,24 @@
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1021</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1259,16 +1516,888 @@
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1022</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1023</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1024</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1025</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1026</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1027</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1028</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1029</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>1030</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1030</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1031</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1032</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>1033</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1033</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>1034</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1034</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1035</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1036</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>1037</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1037</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>1038</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1038</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>1039</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1039</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1040</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>1041</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1041</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1042</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>1043</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1043</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>1044</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1044</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1045</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>1046</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1046</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>1047</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1047</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>1048</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1048</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>1049</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1049</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1050</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>1051</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1051</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1052</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3">
+        <v>1053</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1053</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>1054</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1054</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>1055</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1055</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>1056</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1056</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC09BCC-E2A0-4588-A296-F185A76BB7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A8777-7255-4C72-9275-B157B9016989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>array,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>target_buff_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -470,6 +466,10 @@
   </si>
   <si>
     <t>视野 + {s}。</t>
+  </si>
+  <si>
+    <t>array,float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -876,18 +876,18 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C43:C60"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>11</v>
@@ -941,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
@@ -995,10 +995,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>1001</v>
@@ -1020,10 +1020,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -1045,10 +1045,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>1003</v>
@@ -1070,10 +1070,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>1004</v>
@@ -1095,10 +1095,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
         <v>1005</v>
@@ -1120,10 +1120,10 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>1006</v>
@@ -1145,10 +1145,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>1007</v>
@@ -1170,10 +1170,10 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>1008</v>
@@ -1195,10 +1195,10 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>1009</v>
@@ -1220,10 +1220,10 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3">
         <v>1010</v>
@@ -1245,19 +1245,19 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>1011</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1270,19 +1270,19 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>1012</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G16" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1295,19 +1295,19 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>1013</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1320,19 +1320,19 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3">
         <v>1014</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G18" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1345,19 +1345,19 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3">
         <v>1015</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G19" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1370,19 +1370,19 @@
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
         <v>1016</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1395,19 +1395,19 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="3">
         <v>1017</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G21" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1420,19 +1420,19 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3">
         <v>1018</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G22" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1445,19 +1445,19 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3">
         <v>1019</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G23" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1470,19 +1470,19 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3">
         <v>1020</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1495,10 +1495,10 @@
         <v>1021</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3">
         <v>1021</v>
@@ -1520,10 +1520,10 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3">
         <v>1022</v>
@@ -1545,10 +1545,10 @@
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="3">
         <v>1023</v>
@@ -1570,10 +1570,10 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E28" s="3">
         <v>1024</v>
@@ -1595,10 +1595,10 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="3">
         <v>1025</v>
@@ -1620,10 +1620,10 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="3">
         <v>1026</v>
@@ -1645,10 +1645,10 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="3">
         <v>1027</v>
@@ -1670,10 +1670,10 @@
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E32" s="3">
         <v>1028</v>
@@ -1695,10 +1695,10 @@
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="3">
         <v>1029</v>
@@ -1720,10 +1720,10 @@
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3">
         <v>1030</v>
@@ -1745,10 +1745,10 @@
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="3">
         <v>1031</v>
@@ -1770,10 +1770,10 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3">
         <v>1032</v>
@@ -1795,10 +1795,10 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37" s="3">
         <v>1033</v>
@@ -1820,10 +1820,10 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E38" s="3">
         <v>1034</v>
@@ -1845,10 +1845,10 @@
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="3">
         <v>1035</v>
@@ -1870,10 +1870,10 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="3">
         <v>1036</v>
@@ -1895,10 +1895,10 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="3">
         <v>1037</v>
@@ -1920,10 +1920,10 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="3">
         <v>1038</v>
@@ -1945,19 +1945,19 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="3">
         <v>1039</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G43" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -1970,19 +1970,19 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E44" s="3">
         <v>1040</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G44" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -1995,19 +1995,19 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="3">
         <v>1041</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G45" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2020,19 +2020,19 @@
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="3">
         <v>1042</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G46" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2045,19 +2045,19 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="3">
         <v>1043</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G47" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2070,19 +2070,19 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" s="3">
         <v>1044</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G48" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2095,19 +2095,19 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" s="3">
         <v>1045</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G49" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2120,19 +2120,19 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="3">
         <v>1046</v>
       </c>
       <c r="F50" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G50" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2145,19 +2145,19 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E51" s="3">
         <v>1047</v>
       </c>
       <c r="F51" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G51" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2170,19 +2170,19 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>1048</v>
       </c>
       <c r="F52" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2195,19 +2195,19 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="3">
         <v>1049</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G53" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2220,19 +2220,19 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="3">
         <v>1050</v>
       </c>
       <c r="F54" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G54" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -2245,19 +2245,19 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="3">
         <v>1051</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G55" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -2270,19 +2270,19 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="3">
         <v>1052</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G56" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -2295,19 +2295,19 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="3">
         <v>1053</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G57" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2320,19 +2320,19 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" s="3">
         <v>1054</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G58" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -2345,19 +2345,19 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="3">
         <v>1055</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G59" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2370,19 +2370,19 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E60" s="3">
         <v>1056</v>
       </c>
       <c r="F60" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G60" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A8777-7255-4C72-9275-B157B9016989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D7745-1F8B-40F5-9231-F7EA52FEF799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
   <si>
     <t>##var</t>
   </si>
@@ -114,66 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理抗性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰抗性百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜抗性百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电抗性百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素抗性百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理抗性百分比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰伤害 + {s}。</t>
   </si>
   <si>
@@ -234,14 +174,6 @@
     <t>物理抗性 + {s}%。</t>
   </si>
   <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>防御</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,34 +190,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>治疗效率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>力量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,68 +206,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>视野</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击范围百分比</t>
-  </si>
-  <si>
-    <t>视野百分比</t>
-  </si>
-  <si>
-    <t>最大生命值百分比</t>
-  </si>
-  <si>
-    <t>生命回复百分比</t>
-  </si>
-  <si>
-    <t>防御百分比</t>
-  </si>
-  <si>
-    <t>闪避百分比</t>
-  </si>
-  <si>
-    <t>幸运百分比</t>
-  </si>
-  <si>
-    <t>速度百分比</t>
-  </si>
-  <si>
-    <t>治疗效率百分比</t>
-  </si>
-  <si>
-    <t>暴击率百分比</t>
-  </si>
-  <si>
-    <t>暴击伤害百分比</t>
-  </si>
-  <si>
-    <t>易伤伤害百分比</t>
-  </si>
-  <si>
-    <t>易伤率百分比</t>
-  </si>
-  <si>
-    <t>魔力百分比</t>
-  </si>
-  <si>
-    <t>攻击速度百分比</t>
-  </si>
-  <si>
-    <t>力量百分比</t>
-  </si>
-  <si>
-    <t>智慧百分比</t>
-  </si>
-  <si>
-    <t>敏捷百分比</t>
-  </si>
-  <si>
     <t>攻击范围 + {s}%。</t>
   </si>
   <si>
@@ -469,6 +319,150 @@
   </si>
   <si>
     <t>array,float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火苗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远见</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯哼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃避</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可恶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -876,8 +870,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
@@ -998,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3">
         <v>1001</v>
@@ -1023,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -1048,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>1003</v>
@@ -1073,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>1004</v>
@@ -1098,7 +1092,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>1005</v>
@@ -1120,10 +1114,10 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <v>1006</v>
@@ -1145,10 +1139,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3">
         <v>1007</v>
@@ -1170,10 +1164,10 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3">
         <v>1008</v>
@@ -1195,10 +1189,10 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3">
         <v>1009</v>
@@ -1220,10 +1214,10 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3">
         <v>1010</v>
@@ -1245,10 +1239,10 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
         <v>1011</v>
@@ -1270,10 +1264,10 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3">
         <v>1012</v>
@@ -1295,10 +1289,10 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3">
         <v>1013</v>
@@ -1320,10 +1314,10 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E18" s="3">
         <v>1014</v>
@@ -1345,10 +1339,10 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3">
         <v>1015</v>
@@ -1370,10 +1364,10 @@
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3">
         <v>1016</v>
@@ -1395,10 +1389,10 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3">
         <v>1017</v>
@@ -1420,10 +1414,10 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3">
         <v>1018</v>
@@ -1445,10 +1439,10 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3">
         <v>1019</v>
@@ -1470,10 +1464,10 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E24" s="3">
         <v>1020</v>
@@ -1495,10 +1489,10 @@
         <v>1021</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3">
         <v>1021</v>
@@ -1520,10 +1514,10 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3">
         <v>1022</v>
@@ -1545,10 +1539,10 @@
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3">
         <v>1023</v>
@@ -1570,10 +1564,10 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E28" s="3">
         <v>1024</v>
@@ -1595,10 +1589,10 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3">
         <v>1025</v>
@@ -1620,10 +1614,10 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3">
         <v>1026</v>
@@ -1645,10 +1639,10 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="E31" s="3">
         <v>1027</v>
@@ -1670,10 +1664,10 @@
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="E32" s="3">
         <v>1028</v>
@@ -1695,10 +1689,10 @@
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3">
         <v>1029</v>
@@ -1720,10 +1714,10 @@
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3">
         <v>1030</v>
@@ -1745,10 +1739,10 @@
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3">
         <v>1031</v>
@@ -1770,10 +1764,10 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E36" s="3">
         <v>1032</v>
@@ -1795,10 +1789,10 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3">
         <v>1033</v>
@@ -1820,10 +1814,10 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E38" s="3">
         <v>1034</v>
@@ -1845,10 +1839,10 @@
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3">
         <v>1035</v>
@@ -1870,10 +1864,10 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="E40" s="3">
         <v>1036</v>
@@ -1895,10 +1889,10 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3">
         <v>1037</v>
@@ -1920,10 +1914,10 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3">
         <v>1038</v>
@@ -1945,10 +1939,10 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="E43" s="3">
         <v>1039</v>
@@ -1970,10 +1964,10 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E44" s="3">
         <v>1040</v>
@@ -1995,10 +1989,10 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E45" s="3">
         <v>1041</v>
@@ -2020,10 +2014,10 @@
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E46" s="3">
         <v>1042</v>
@@ -2045,10 +2039,10 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E47" s="3">
         <v>1043</v>
@@ -2070,10 +2064,10 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E48" s="3">
         <v>1044</v>
@@ -2095,10 +2089,10 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E49" s="3">
         <v>1045</v>
@@ -2120,10 +2114,10 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E50" s="3">
         <v>1046</v>
@@ -2145,10 +2139,10 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="E51" s="3">
         <v>1047</v>
@@ -2170,10 +2164,10 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E52" s="3">
         <v>1048</v>
@@ -2195,10 +2189,10 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="E53" s="3">
         <v>1049</v>
@@ -2220,10 +2214,10 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="E54" s="3">
         <v>1050</v>
@@ -2245,10 +2239,10 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E55" s="3">
         <v>1051</v>
@@ -2270,10 +2264,10 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E56" s="3">
         <v>1052</v>
@@ -2295,10 +2289,10 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E57" s="3">
         <v>1053</v>
@@ -2320,10 +2314,10 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3">
         <v>1054</v>
@@ -2345,10 +2339,10 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E59" s="3">
         <v>1055</v>
@@ -2370,10 +2364,10 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E60" s="3">
         <v>1056</v>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D7745-1F8B-40F5-9231-F7EA52FEF799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF88825-C34A-4974-A3F3-7A626E6E8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>##var</t>
   </si>
@@ -463,6 +464,66 @@
   </si>
   <si>
     <t>激素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向添加词缀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰烬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级添加剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础打造材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶打造材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级打造材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换初火尘微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初火残渣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初火尘微</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初火灵砂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初火源质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理灰烬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新随机装备所有词缀数值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -869,9 +930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5:C60"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2403,4 +2464,81 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D0B47B-E38E-4768-8A4A-051690BC17A9}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF88825-C34A-4974-A3F3-7A626E6E8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483FF27-9675-47BC-A69C-6F9690D6DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="MainBuffs" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
   <si>
     <t>##var</t>
   </si>
@@ -524,6 +525,18 @@
   </si>
   <si>
     <t>重新随机装备所有词缀数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害 + {s}。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御 + {s}。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +945,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="A1:E5"/>
+      <selection pane="bottomLeft" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2467,10 +2480,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8432338-C7E7-4E73-8008-587F2752C950}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1057</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1058</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D0B47B-E38E-4768-8A4A-051690BC17A9}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483FF27-9675-47BC-A69C-6F9690D6DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40926E38-DA75-4758-83DE-25BD77DB15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8432338-C7E7-4E73-8008-587F2752C950}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40926E38-DA75-4758-83DE-25BD77DB15D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076904B-46EC-4525-AE2C-06DF9E669A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
-    <sheet name="MainBuffs" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="GoldNames" sheetId="4" r:id="rId2"/>
+    <sheet name="MainBuffs" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="164">
   <si>
     <t>##var</t>
   </si>
@@ -96,26 +97,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰伤害 + {s}。</t>
   </si>
   <si>
@@ -184,34 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幸运</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智慧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围 + {s}%。</t>
   </si>
   <si>
@@ -324,150 +277,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>燃烧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚固</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒霜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊雷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顽石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火苗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰锥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顽强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>远见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开阔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯哼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>逃避</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可恶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厉害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不错</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>通货</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,6 +346,294 @@
   </si>
   <si>
     <t>防御 + {s}。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑红礼赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极斗士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗见解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧虎藏龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘之心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流亡者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万花筒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂死之阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创世回声</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天国阶梯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星锻炉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金灵感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远足算子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>险峻理想</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣歌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌声</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箴言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哭泣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祸根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁垒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真诚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孪生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火漆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕纸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>步伐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敦促</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿望</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>串烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>围城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>划痕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔咒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狡诈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾厄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂舞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -943,9 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D60"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
@@ -1063,10 +1160,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <v>1001</v>
@@ -1088,10 +1185,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3">
         <v>1002</v>
@@ -1113,10 +1210,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>1003</v>
@@ -1138,10 +1235,10 @@
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="3">
         <v>1004</v>
@@ -1163,10 +1260,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E9" s="3">
         <v>1005</v>
@@ -1188,10 +1285,10 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
         <v>1006</v>
@@ -1213,10 +1310,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3">
         <v>1007</v>
@@ -1238,10 +1335,10 @@
         <v>1008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="3">
         <v>1008</v>
@@ -1263,10 +1360,10 @@
         <v>1009</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
         <v>1009</v>
@@ -1288,10 +1385,10 @@
         <v>1010</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3">
         <v>1010</v>
@@ -1313,10 +1410,10 @@
         <v>1011</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3">
         <v>1011</v>
@@ -1338,10 +1435,10 @@
         <v>1012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3">
         <v>1012</v>
@@ -1363,10 +1460,10 @@
         <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3">
         <v>1013</v>
@@ -1388,10 +1485,10 @@
         <v>1014</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3">
         <v>1014</v>
@@ -1413,10 +1510,10 @@
         <v>1015</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3">
         <v>1015</v>
@@ -1438,10 +1535,10 @@
         <v>1016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3">
         <v>1016</v>
@@ -1463,10 +1560,10 @@
         <v>1017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3">
         <v>1017</v>
@@ -1488,10 +1585,10 @@
         <v>1018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E22" s="3">
         <v>1018</v>
@@ -1513,10 +1610,10 @@
         <v>1019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3">
         <v>1019</v>
@@ -1538,10 +1635,10 @@
         <v>1020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3">
         <v>1020</v>
@@ -1563,10 +1660,10 @@
         <v>1021</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3">
         <v>1021</v>
@@ -1588,10 +1685,10 @@
         <v>1022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3">
         <v>1022</v>
@@ -1613,10 +1710,10 @@
         <v>1023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E27" s="3">
         <v>1023</v>
@@ -1638,10 +1735,10 @@
         <v>1024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3">
         <v>1024</v>
@@ -1663,10 +1760,10 @@
         <v>1025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3">
         <v>1025</v>
@@ -1688,10 +1785,10 @@
         <v>1026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3">
         <v>1026</v>
@@ -1713,10 +1810,10 @@
         <v>1027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3">
         <v>1027</v>
@@ -1738,10 +1835,10 @@
         <v>1028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3">
         <v>1028</v>
@@ -1763,10 +1860,10 @@
         <v>1029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E33" s="3">
         <v>1029</v>
@@ -1788,10 +1885,10 @@
         <v>1030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3">
         <v>1030</v>
@@ -1813,10 +1910,10 @@
         <v>1031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3">
         <v>1031</v>
@@ -1838,10 +1935,10 @@
         <v>1032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E36" s="3">
         <v>1032</v>
@@ -1863,10 +1960,10 @@
         <v>1033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E37" s="3">
         <v>1033</v>
@@ -1888,10 +1985,10 @@
         <v>1034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E38" s="3">
         <v>1034</v>
@@ -1913,10 +2010,10 @@
         <v>1035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E39" s="3">
         <v>1035</v>
@@ -1938,10 +2035,10 @@
         <v>1036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E40" s="3">
         <v>1036</v>
@@ -1963,10 +2060,10 @@
         <v>1037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E41" s="3">
         <v>1037</v>
@@ -1988,10 +2085,10 @@
         <v>1038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E42" s="3">
         <v>1038</v>
@@ -2013,10 +2110,10 @@
         <v>1039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3">
         <v>1039</v>
@@ -2038,10 +2135,10 @@
         <v>1040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E44" s="3">
         <v>1040</v>
@@ -2063,10 +2160,10 @@
         <v>1041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3">
         <v>1041</v>
@@ -2088,10 +2185,10 @@
         <v>1042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E46" s="3">
         <v>1042</v>
@@ -2113,10 +2210,10 @@
         <v>1043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E47" s="3">
         <v>1043</v>
@@ -2138,10 +2235,10 @@
         <v>1044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E48" s="3">
         <v>1044</v>
@@ -2163,10 +2260,10 @@
         <v>1045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E49" s="3">
         <v>1045</v>
@@ -2188,10 +2285,10 @@
         <v>1046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E50" s="3">
         <v>1046</v>
@@ -2213,10 +2310,10 @@
         <v>1047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E51" s="3">
         <v>1047</v>
@@ -2238,10 +2335,10 @@
         <v>1048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E52" s="3">
         <v>1048</v>
@@ -2263,10 +2360,10 @@
         <v>1049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E53" s="3">
         <v>1049</v>
@@ -2288,10 +2385,10 @@
         <v>1050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E54" s="3">
         <v>1050</v>
@@ -2313,10 +2410,10 @@
         <v>1051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E55" s="3">
         <v>1051</v>
@@ -2338,10 +2435,10 @@
         <v>1052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E56" s="3">
         <v>1052</v>
@@ -2363,10 +2460,10 @@
         <v>1053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E57" s="3">
         <v>1053</v>
@@ -2388,10 +2485,10 @@
         <v>1054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E58" s="3">
         <v>1054</v>
@@ -2413,10 +2510,10 @@
         <v>1055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E59" s="3">
         <v>1055</v>
@@ -2438,10 +2535,10 @@
         <v>1056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E60" s="3">
         <v>1056</v>
@@ -2480,6 +2577,468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8432338-C7E7-4E73-8008-587F2752C950}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2527,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -2569,10 +3128,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3">
         <v>1057</v>
@@ -2590,10 +3149,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3">
         <v>1058</v>
@@ -2617,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D0B47B-E38E-4768-8A4A-051690BC17A9}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -2629,63 +3188,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076904B-46EC-4525-AE2C-06DF9E669A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E396C5-91AA-454C-8EB0-163045ACB7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
-    <sheet name="GoldNames" sheetId="4" r:id="rId2"/>
-    <sheet name="MainBuffs" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="GoldAffixs" sheetId="5" r:id="rId2"/>
+    <sheet name="GoldNames" sheetId="4" r:id="rId3"/>
+    <sheet name="MainBuffs" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
   <si>
     <t>##var</t>
   </si>
@@ -634,6 +635,30 @@
   </si>
   <si>
     <t>鬼魅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害变为 2 倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运变为 2 倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度变为 2 倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1067,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2577,476 +2602,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
-  <dimension ref="A1:D60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3">
-        <v>1005</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3">
-        <v>1007</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
-        <v>1011</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>1012</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>1013</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3">
-        <v>1014</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3">
-        <v>1015</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8432338-C7E7-4E73-8008-587F2752C950}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -3128,19 +2699,19 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="E5" s="3">
-        <v>1057</v>
+        <v>10001</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -3149,20 +2720,50 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3">
-        <v>1058</v>
+        <v>10002</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3176,7 +2777,607 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8432338-C7E7-4E73-8008-587F2752C950}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1057</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1058</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D0B47B-E38E-4768-8A4A-051690BC17A9}">
   <dimension ref="A1:B8"/>
   <sheetViews>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E396C5-91AA-454C-8EB0-163045ACB7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92906297-DD8B-4F3C-BEC0-ABF9C97D3D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -1065,9 +1065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1819,7 +1819,7 @@
         <v>1026</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="3">
         <v>10</v>
@@ -2322,7 +2322,7 @@
         <v>0.1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2605,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92906297-DD8B-4F3C-BEC0-ABF9C97D3D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1798ED87-19EC-4699-8936-F1C124A1E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
   <si>
     <t>##var</t>
   </si>
@@ -642,23 +642,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤害变为 2 倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>幸运</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幸运变为 2 倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度变为 2 倍</t>
+    <t>基础伤伤害 +0.1 倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运加 0.1 倍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1065,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -2603,9 +2595,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2702,7 +2694,7 @@
         <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3">
         <v>10001</v>
@@ -2720,7 +2712,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>167</v>
@@ -2737,33 +2729,12 @@
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10003</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1798ED87-19EC-4699-8936-F1C124A1E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A773FED-92B3-481C-A894-04E9F16771A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="182">
   <si>
     <t>##var</t>
   </si>
@@ -646,11 +646,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤伤害 +0.1 倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运加 0.1 倍</t>
+    <t>基础伤伤害 *{s} 倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运加 *{s} 倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外闪电伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外毒素伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外火焰伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外冰霜伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外冰霜抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外火焰抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外雷电抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外毒素抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 +{s}%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1114,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2595,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2608,7 +2664,8 @@
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2700,10 +2757,10 @@
         <v>10001</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -2721,20 +2778,605 @@
         <v>10002</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10005</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10007</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10008</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10009</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10010</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10011</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Equipment.xlsx
+++ b/DataBase/Datas/Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8837D217-2DED-4DC4-9C2D-6BB523B46CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5315D5-4E15-4663-98D2-9429D0D5BE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Affix" sheetId="1" r:id="rId1"/>
@@ -1113,9 +1113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2628,6 +2628,9 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2653,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4E3622-AA95-4903-A6BB-C9702E79A1C7}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3394,7 +3397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A5F27B-6688-445C-9A2A-E5C7416A2AAD}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
